--- a/biology/Biochimie/Lipase_pancréatique/Lipase_pancréatique.xlsx
+++ b/biology/Biochimie/Lipase_pancréatique/Lipase_pancréatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lipase_pancr%C3%A9atique</t>
+          <t>Lipase_pancréatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lipase pancréatique (ou triacylglycérolacylhydrolase) est une enzyme (plus spécifiquement une lipase hydrosoluble) qui est produite par le pancréas sous forme zymogène et qui permet la digestion des graisses.
 Cette enzyme est activée dans le duodénum par la trypsine. Elle est active à pH alcalin : l'ion bicarbonate produit par le pancréas neutralise l'acidité gastrique.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lipase_pancr%C3%A9atique</t>
+          <t>Lipase_pancréatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Animaux hibernants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les animaux hibernants stockent des graisses en se nourrissant avant l'hibernation. La lipase pancréatique permet de dissoudre ces graisses (triglycérides et acides gras) tout au long de l'hibernation, où l'animal ne se nourrit pas, pour les utiliser comme source d'énergie et de chaleur [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les animaux hibernants stockent des graisses en se nourrissant avant l'hibernation. La lipase pancréatique permet de dissoudre ces graisses (triglycérides et acides gras) tout au long de l'hibernation, où l'animal ne se nourrit pas, pour les utiliser comme source d'énergie et de chaleur .
 </t>
         </is>
       </c>
